--- a/WC_6/Source/URLs_for_crawler_v3.xlsx
+++ b/WC_6/Source/URLs_for_crawler_v3.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/64e0aa8c32b04d39/Programacion/REPOS/CrawlerWeb/WC_6/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{5799992E-079C-42DD-84ED-A15E667A7245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33305763-3C24-491A-83AB-3354A06CD1CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEE845C8-09F9-41A2-B96E-6C0380928001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45E50F0E-D8CF-4BB3-ADDC-04E75B960594}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Company</t>
   </si>
@@ -31,295 +36,445 @@
     <t>franziska Schervier Altenhilfe</t>
   </si>
   <si>
-    <t>schervier-altenhilfe.de</t>
+    <t>https://www.schervier-altenhilfe.de</t>
   </si>
   <si>
     <t>oder-Spree Krankenhaus Gmbh</t>
   </si>
   <si>
-    <t>www.os-kh.de</t>
+    <t>https://www.os-kh.de</t>
   </si>
   <si>
     <t>wie Daham Scheiflinger Pflegeheim- Und Dienstleistungsgesellschaft Mbh</t>
   </si>
   <si>
-    <t>www.wiedaham.at</t>
+    <t>https://www.wiedaham.at</t>
   </si>
   <si>
     <t>Undefined</t>
   </si>
   <si>
-    <t>www.rehaklinik-seebadahlbeck.de</t>
+    <t>https://www.rehaklinik-seebadahlbeck.de</t>
   </si>
   <si>
     <t>A.I.B.-Wohngruppen Gmbh</t>
   </si>
   <si>
-    <t>www.ai-bayern.de</t>
+    <t>https://www.ai-bayern.de</t>
   </si>
   <si>
     <t>Aaa-Pharma Gmbh</t>
   </si>
   <si>
-    <t>www.aaa-pharma.de</t>
+    <t>https://www.aaa-pharma.de</t>
   </si>
   <si>
     <t>Accuray (NAS ARAY)</t>
   </si>
   <si>
-    <t>www.accuray.com</t>
+    <t>https://www.accuray.com</t>
   </si>
   <si>
     <t>ACURA Zahnärzte</t>
   </si>
   <si>
-    <t>www.acura-zahnaerzte.de</t>
+    <t>https://www.acura-zahnaerzte.de</t>
   </si>
   <si>
     <t>ADK GmbH for Health and Social Affairs</t>
   </si>
   <si>
-    <t>www.adk-gmbh.de</t>
+    <t>https://www.adk-gmbh.de</t>
   </si>
   <si>
     <t>Agaplesion Bethesda Klinik Ulm Gemeinnutzige Gmbh</t>
   </si>
   <si>
-    <t>www.bethesda-ulm.de</t>
+    <t>https://www.bethesda-ulm.de</t>
   </si>
   <si>
     <t>Agaplesion Diakonie Kliniken Kassel GemeinnÜTzige Gmbh</t>
   </si>
   <si>
-    <t>startseite.diako-kassel.de</t>
+    <t>https://www.startseite.diako-kassel.de</t>
   </si>
   <si>
     <t>Akp-Plus Dienstleistungs Gmbh</t>
   </si>
   <si>
-    <t>www.akp-plus.de</t>
+    <t>https://www.akp-plus.de</t>
   </si>
   <si>
     <t>Aks Aktuelle Krankenpflege Systeme Gmbh</t>
   </si>
   <si>
-    <t>www.aks.de</t>
+    <t>https://www.aks.de</t>
   </si>
   <si>
     <t>Alcon Inc. (SWXALC)</t>
   </si>
   <si>
-    <t>www.alcon.com</t>
+    <t>https://www.alcon.com</t>
   </si>
   <si>
     <t>Alfried Krupp Von Bohlen Und Halbach-Krankenhaus Gemeinnutzige Gesellschaft Mit Beschrankt</t>
   </si>
   <si>
-    <t>www.krupp-krankenhaus.de</t>
+    <t>https://www.krupp-krankenhaus.de</t>
   </si>
   <si>
     <t>AliveDx</t>
   </si>
   <si>
-    <t>www.alivedx.com</t>
+    <t>https://www.alivedx.com</t>
   </si>
   <si>
     <t>AllDent Zahnzentrum</t>
   </si>
   <si>
-    <t>www.alldent.de</t>
+    <t>https://www.alldent.de</t>
   </si>
   <si>
     <t>Aller-Weser-Klinik</t>
   </si>
   <si>
-    <t>aller-weser-klinik.de</t>
+    <t>https://www.aller-weser-klinik.de</t>
   </si>
   <si>
     <t>Allgemeines Krankenhaus Viersen Gesellschaft Mit Beschrankter Haftung</t>
   </si>
   <si>
-    <t>www.akh-viersen.de</t>
+    <t>https://www.akh-viersen.de</t>
   </si>
   <si>
     <t>Alpenland Pflege- Und Altenheim Betriebsges. Mbh</t>
   </si>
   <si>
-    <t>www.betreuung-und-pflege.de</t>
+    <t>https://www.betreuung-und-pflege.de</t>
   </si>
   <si>
     <t>alphacaps</t>
   </si>
   <si>
-    <t>www.alphacaps.de</t>
+    <t>https://www.alphacaps.de</t>
   </si>
   <si>
     <t>Alsterdorf Assistenz West Gemeinnützige</t>
   </si>
   <si>
-    <t>alsterdorf-assistenz-west.de</t>
+    <t>https://www.alsterdorf-assistenz-west.de</t>
   </si>
   <si>
     <t>Altmark-Klinikum</t>
   </si>
   <si>
-    <t>altmark-klinikum.de</t>
+    <t>https://www.altmark-klinikum.de</t>
   </si>
   <si>
     <t>Amann Girrbach AG</t>
   </si>
   <si>
-    <t>www.amanngirrbach.com</t>
+    <t>https://www.amanngirrbach.com</t>
   </si>
   <si>
     <t>Ambulanzzentrum Des Uke</t>
   </si>
   <si>
-    <t>uke.uni-hamburg.de</t>
+    <t>https://www.uke.uni-hamburg.de</t>
   </si>
   <si>
     <t>AME International GmbH</t>
   </si>
   <si>
-    <t>www.ame-international.com</t>
+    <t>https://www.ame-international.com</t>
   </si>
   <si>
     <t>Ameos Krankenhausgesellschaft Baden Mbh</t>
   </si>
   <si>
-    <t>www.ameos.eu</t>
+    <t>https://www.ameos.eu</t>
   </si>
   <si>
     <t>Ampri Handelsgesellschaft</t>
   </si>
   <si>
-    <t>www.ampri.de</t>
+    <t>https://www.ampri.de</t>
   </si>
   <si>
     <t>Arthrex Austria Gesmbh</t>
   </si>
   <si>
-    <t>www.arthrex.at</t>
+    <t>https://www.arthrex.at</t>
   </si>
   <si>
     <t>Asb-Casa Vital</t>
   </si>
   <si>
-    <t>asb-casa-vital.de</t>
+    <t>https://www.asb-casa-vital.de</t>
   </si>
   <si>
     <t>Asclepion Laser Technologies</t>
   </si>
   <si>
-    <t>www.asclepion.com</t>
+    <t>https://www.asclepion.com</t>
   </si>
   <si>
     <t>Ascom Holding AG (SWXASCN)</t>
   </si>
   <si>
-    <t>www.ascom.com</t>
-  </si>
-  <si>
-    <t>Ategris</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>https://www.ascom.com</t>
   </si>
   <si>
     <t>Augusta-Kranken-Anstalt Gemeinnutzige Gmbh</t>
   </si>
   <si>
-    <t>www.augusta-kliniken.de</t>
+    <t>https://www.augusta-kliniken.de</t>
   </si>
   <si>
     <t>Augustinum Gemeinnützige</t>
   </si>
   <si>
-    <t>augustinum-gruppe.de</t>
+    <t>https://www.augustinum-gruppe.de</t>
   </si>
   <si>
     <t>Avendi Senioren Service Gmbh &amp; Co.</t>
   </si>
   <si>
-    <t>avendi-senioren.de</t>
+    <t>https://www.avendi-senioren.de</t>
   </si>
   <si>
     <t>Awo Senioren- Und Sozialzentrum Ggmbh Sachsen-West</t>
   </si>
   <si>
-    <t>www.awo-sachsen-west.de</t>
+    <t>https://www.awo-sachsen-west.de</t>
   </si>
   <si>
     <t>Barmherzige Bruder Gemeinnutzige Krankenhaus Gmbh</t>
   </si>
   <si>
-    <t>www.barmherzige-regensburg.de</t>
+    <t>https://www.barmherzige-regensburg.de</t>
   </si>
   <si>
     <t>Bauerfeind</t>
   </si>
   <si>
-    <t>www.bauerfeind-group.com</t>
+    <t>https://www.bauerfeind-group.com</t>
   </si>
   <si>
     <t>Bauerfeind AG</t>
   </si>
   <si>
-    <t>www.bauerfeind.de</t>
+    <t>https://www.bauerfeind.de</t>
   </si>
   <si>
     <t>BAYOONET Aktiengesellschaft</t>
   </si>
   <si>
-    <t>www.bayoo.net</t>
+    <t>https://www.bayoo.net</t>
   </si>
   <si>
     <t>Bdh-Klinik Hessisch Oldendorf</t>
   </si>
   <si>
-    <t>bdh-klinik-hessisch-oldendorf.de</t>
+    <t>https://www.bdh-klinik-hessisch-oldendorf.de</t>
   </si>
   <si>
     <t>BEGO GmbH &amp; Co. KG</t>
   </si>
   <si>
-    <t>www.BEGO.com</t>
+    <t>https://www.BEGO.com</t>
   </si>
   <si>
     <t>Behandlungszentrum Aschau</t>
   </si>
   <si>
-    <t>kiz-chiemgau.de</t>
+    <t>https://www.kiz-chiemgau.de</t>
   </si>
   <si>
     <t>Bergmannsheil Und Kinderklinik Buer</t>
   </si>
   <si>
-    <t>bergmannsheil-buer.de</t>
+    <t>https://www.bergmannsheil-buer.de</t>
   </si>
   <si>
     <t>Berufsbildungswerk Leipzig Für Hör- Und Sprachgeschädigte</t>
   </si>
   <si>
-    <t>bbw-leipzig.de</t>
+    <t>https://www.bbw-leipzig.de</t>
   </si>
   <si>
     <t>Berufsgenossenschaftliches Universitätsklinikum Bergmannsheil</t>
   </si>
   <si>
-    <t>bergmannsheil.de</t>
+    <t>https://www.bergmannsheil.de</t>
   </si>
   <si>
     <t>Bg Klinik Fur Berufskrankheiten Bad Reichenhall Ggmbh</t>
   </si>
   <si>
-    <t>www.bg-kliniken.de</t>
+    <t>https://www.bg-kliniken.de</t>
   </si>
   <si>
     <t>Big Arbeitsschutz Gmbh</t>
   </si>
   <si>
-    <t>www.big-arbeitsschutz.de</t>
+    <t>https://www.big-arbeitsschutz.de</t>
+  </si>
+  <si>
+    <t>Biocartis (BRU BCART)</t>
+  </si>
+  <si>
+    <t>https://www.biocartis.com</t>
+  </si>
+  <si>
+    <t>Bionime (TAI 4737)</t>
+  </si>
+  <si>
+    <t>https://www.bionime.com</t>
+  </si>
+  <si>
+    <t>Bitmarck</t>
+  </si>
+  <si>
+    <t>https://www.bitmarck.de</t>
+  </si>
+  <si>
+    <t>Bonifatius Hospital Lingen Ggmbh</t>
+  </si>
+  <si>
+    <t>https://www.bonifatius-hospital-lingen.de</t>
+  </si>
+  <si>
+    <t>Borromäus Hospital Leer</t>
+  </si>
+  <si>
+    <t>https://www.borrom</t>
+  </si>
+  <si>
+    <t>BORT GmbH</t>
+  </si>
+  <si>
+    <t>https://www.bort.com/en</t>
+  </si>
+  <si>
+    <t>Bracco Imaging Deutschland Gmbh</t>
+  </si>
+  <si>
+    <t>https://www.imaging.bracco.com</t>
+  </si>
+  <si>
+    <t>Bremer Heimpflege Gemeinnützi- Ge GmbH</t>
+  </si>
+  <si>
+    <t>https://www.bremer-heimstiftung.de</t>
+  </si>
+  <si>
+    <t>Buchinger Wilhelmi Holding Gmbh &amp; Co.</t>
+  </si>
+  <si>
+    <t>https://www.buchinger.com</t>
+  </si>
+  <si>
+    <t>Burgerhospital Und Clementine Kinderhospital Gemeinnutzige Gmbh</t>
+  </si>
+  <si>
+    <t>https://www.buergerhospital-ffm.de</t>
+  </si>
+  <si>
+    <t>Caritas Altenhilfe GGmbH</t>
+  </si>
+  <si>
+    <t>https://www.caritas-altenhilfe.de</t>
+  </si>
+  <si>
+    <t>Caritas-Krankenhaus St. Lukas</t>
+  </si>
+  <si>
+    <t>https://www.goldbergklinik.de</t>
+  </si>
+  <si>
+    <t>Carpe Diem - Gesellschaft FÜR Den Betrieb Von Sozialeinrichtungen Mbh</t>
+  </si>
+  <si>
+    <t>https://www.senioren-park.de</t>
+  </si>
+  <si>
+    <t>Cbwk Clarenbachwerk Köln</t>
+  </si>
+  <si>
+    <t>https://www.clarenbachwerk.de</t>
+  </si>
+  <si>
+    <t>Centogene N.V. (NasdaqGMCNTG)</t>
+  </si>
+  <si>
+    <t>https://www.centogene.com</t>
+  </si>
+  <si>
+    <t>CHAPTERS Group AG (XTRACHG)</t>
+  </si>
+  <si>
+    <t>https://www.chaptersgroup.com</t>
+  </si>
+  <si>
+    <t>Christliches Kinderhospital OsnabrÜCk Gmbh</t>
+  </si>
+  <si>
+    <t>https://www.christliches-kinderhospital.de</t>
+  </si>
+  <si>
+    <t>Christophorus Kliniken Gmbh</t>
+  </si>
+  <si>
+    <t>https://www.christophorus-kliniken.de</t>
+  </si>
+  <si>
+    <t>Christophsbad Goppingen Dr. Landerer Sohne GmbH</t>
+  </si>
+  <si>
+    <t>https://www.christophsbad.de</t>
+  </si>
+  <si>
+    <t>Chromsystems</t>
+  </si>
+  <si>
+    <t>https://www.chromsystems.com</t>
+  </si>
+  <si>
+    <t>Collm Klinik Oschatz</t>
+  </si>
+  <si>
+    <t>https://www.collm-klinik-oschatz.de</t>
+  </si>
+  <si>
+    <t>Colosseum Dental Group (Zurich)</t>
+  </si>
+  <si>
+    <t>https://www.colosseumdental.com</t>
+  </si>
+  <si>
+    <t>Co-Med Gmbh &amp; Co. Kg Fur Logistik, Vertrieb Und Service</t>
+  </si>
+  <si>
+    <t>https://www.co-med.de</t>
+  </si>
+  <si>
+    <t>CompuGroup Medical SE &amp; Co. KGaA (XTRACOP)</t>
+  </si>
+  <si>
+    <t>https://www.cgm.com</t>
+  </si>
+  <si>
+    <t>Cortronik Gmbh</t>
+  </si>
+  <si>
+    <t>https://www.cortronik.com</t>
+  </si>
+  <si>
+    <t>COURAGE+KHAZAKA electronic GmbH</t>
+  </si>
+  <si>
+    <t>https://www.courage-khazaka.de</t>
   </si>
 </sst>
 </file>
@@ -362,7 +517,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -375,7 +530,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -409,20 +564,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -450,14 +605,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -485,6 +657,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,184 +685,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F746AA-B4A0-4847-B76A-D2F6C4066FA1}">
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A564" sqref="A51:XFD564"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -689,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -697,7 +862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -705,7 +870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -713,7 +878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -721,7 +886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -729,7 +894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -737,7 +902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -745,7 +910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -753,7 +918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -761,7 +926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -769,7 +934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -777,7 +942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -785,7 +950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -793,7 +958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -801,7 +966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -809,7 +974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -817,7 +982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -825,7 +990,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -833,7 +998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -841,7 +1006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -849,7 +1014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -857,7 +1022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -865,7 +1030,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -873,7 +1038,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -881,7 +1046,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -889,7 +1054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -897,7 +1062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -905,7 +1070,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -913,7 +1078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -921,7 +1086,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -929,7 +1094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -937,7 +1102,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -945,7 +1110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -953,7 +1118,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -961,7 +1126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -969,7 +1134,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -977,7 +1142,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -985,7 +1150,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -993,7 +1158,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1001,7 +1166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -1009,7 +1174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1017,7 +1182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -1025,7 +1190,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -1033,7 +1198,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -1041,7 +1206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1049,7 +1214,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1057,7 +1222,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -1065,12 +1230,212 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
